--- a/biology/Médecine/1274_en_santé_et_médecine/1274_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1274_en_santé_et_médecine/1274_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1274_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1274_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1274 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1274_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1274_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Paris, les statuts de la faculté de médecine, sont rédigés par maîtres Jean de Parme, Jean Petit, Jean Breton, Pierre de Neuchâtel, Pierre d'Allemagne et Bouret, « les seuls médecins qu'il y eût encore à Paris[1] ».
-L'hôpital du Saint-Esprit (de), fondé par Albert Ier, duc de Brunswick, et « où sont reçus les enfants abandonnés à la mamelle ou autres », est attesté à Einbeck en Saxe[2],[3].
-En Norvège, le code édicté par le roi Magnus le Législateur prévoit des mesures concernant la prise en charge des malades mentaux[4].
-À Râches, en Flandre, un hôpital est mentionné dans le testament de Marguerite Baudane, veuve Mulet, dont la fille fondera la maison des Huit-Prêtres de Douai en 1320[5].
-Fondation à Valenciennes, capitale du Hainaut, de l'hôpital Sainte-Marguerite, dit des femmes gisantes et « où l'on ne reçoit que des pauvres femmes de la cité sur le point de devenir mères[6] ».
-L'hôpital Saint-Jacques, « qui demeure[ra] le principal hôpital de l'agglomération jusqu'au XVIIIe siècle », est attesté à Albi en Languedoc[7].
-Fondée avant 1180, la léproserie de Bretford (en), dans le Warwickshire en Angleterre, est encore en fonction[8].
-L'hôpital Saint-Jean (Hospital of St. John) est attesté à Wensley dans le Yorkshire en Angleterre[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Paris, les statuts de la faculté de médecine, sont rédigés par maîtres Jean de Parme, Jean Petit, Jean Breton, Pierre de Neuchâtel, Pierre d'Allemagne et Bouret, « les seuls médecins qu'il y eût encore à Paris ».
+L'hôpital du Saint-Esprit (de), fondé par Albert Ier, duc de Brunswick, et « où sont reçus les enfants abandonnés à la mamelle ou autres », est attesté à Einbeck en Saxe,.
+En Norvège, le code édicté par le roi Magnus le Législateur prévoit des mesures concernant la prise en charge des malades mentaux.
+À Râches, en Flandre, un hôpital est mentionné dans le testament de Marguerite Baudane, veuve Mulet, dont la fille fondera la maison des Huit-Prêtres de Douai en 1320.
+Fondation à Valenciennes, capitale du Hainaut, de l'hôpital Sainte-Marguerite, dit des femmes gisantes et « où l'on ne reçoit que des pauvres femmes de la cité sur le point de devenir mères ».
+L'hôpital Saint-Jacques, « qui demeure[ra] le principal hôpital de l'agglomération jusqu'au XVIIIe siècle », est attesté à Albi en Languedoc.
+Fondée avant 1180, la léproserie de Bretford (en), dans le Warwickshire en Angleterre, est encore en fonction.
+L'hôpital Saint-Jean (Hospital of St. John) est attesté à Wensley dans le Yorkshire en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1274_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1274_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Raymond Lulle, philosophe, théologien et poète espagnol, fait paraître ses « Principes de médecine » (Liber principiorum medicinae[10]).
-Le médecin juif Faraj ben Salim traduit en latin pour Charles d'Anjou le Kitab al-Tibb al-Mansuri (« Livre de médecine pour Mansour ») de Rhazès (865–c.925[11]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Raymond Lulle, philosophe, théologien et poète espagnol, fait paraître ses « Principes de médecine » (Liber principiorum medicinae).
+Le médecin juif Faraj ben Salim traduit en latin pour Charles d'Anjou le Kitab al-Tibb al-Mansuri (« Livre de médecine pour Mansour ») de Rhazès (865–c.925).</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1274_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1274_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>26 juin : Nasir al-Din al-Tusi (né en 1201), médecin, philosophe, mathématicien, astronome et théologien persan[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>26 juin : Nasir al-Din al-Tusi (né en 1201), médecin, philosophe, mathématicien, astronome et théologien persan.</t>
         </is>
       </c>
     </row>
